--- a/ingestao_de_dados/origens/tbl_engenheiros_brasil_2024.xlsx
+++ b/ingestao_de_dados/origens/tbl_engenheiros_brasil_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\distribuicao_profissao\distribuicao-de-profissoes\ingestao_de_dados\origens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD7CE91-5CC0-4680-85F7-102AA64B35AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE422D7-247C-4295-B1A6-C320A1DEB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E37F6375-82B6-4E07-A003-FAD9306C06D4}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>CREA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Feminino</t>
   </si>
@@ -36,9 +33,6 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>CREA-AC</t>
   </si>
   <si>
@@ -118,6 +112,9 @@
   </si>
   <si>
     <t>CREA-TO</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -139,12 +136,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -185,24 +180,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A3C6D8-37FB-4F21-9785-2AB944B29627}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,408 +520,317 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1">
+        <v>710</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2">
+        <v>1677</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>710</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1892</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="1">
+        <v>4236</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>1677</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7159</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2">
+        <v>391</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>4236</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11833</v>
-      </c>
-      <c r="D4" s="2">
-        <v>16069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="1">
+        <v>12202</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>391</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1278</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2">
+        <v>4673</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>12202</v>
-      </c>
-      <c r="C6" s="2">
-        <v>39436</v>
-      </c>
-      <c r="D6" s="2">
-        <v>51638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="1">
+        <v>4602</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>4673</v>
-      </c>
-      <c r="C7" s="3">
-        <v>19166</v>
-      </c>
-      <c r="D7" s="3">
-        <v>23839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2">
+        <v>6004</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>4602</v>
-      </c>
-      <c r="C8" s="2">
-        <v>18081</v>
-      </c>
-      <c r="D8" s="2">
-        <v>22683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B10" s="1">
+        <v>8487</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>6004</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17778</v>
-      </c>
-      <c r="D9" s="3">
-        <v>23782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2">
+        <v>3821</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>8487</v>
-      </c>
-      <c r="C10" s="2">
-        <v>28991</v>
-      </c>
-      <c r="D10" s="2">
-        <v>37478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="1">
+        <v>32656</v>
+      </c>
+      <c r="C12" s="1">
+        <v>121679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
-        <v>3821</v>
-      </c>
-      <c r="C11" s="3">
-        <v>12044</v>
-      </c>
-      <c r="D11" s="3">
-        <v>15865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2">
+        <v>3793</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>32656</v>
-      </c>
-      <c r="C12" s="2">
-        <v>121679</v>
-      </c>
-      <c r="D12" s="2">
-        <v>154335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="1">
+        <v>6962</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
-        <v>3793</v>
-      </c>
-      <c r="C13" s="3">
-        <v>13313</v>
-      </c>
-      <c r="D13" s="3">
-        <v>17106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2">
+        <v>9615</v>
+      </c>
+      <c r="C15" s="2">
+        <v>24308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
-        <v>6962</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20483</v>
-      </c>
-      <c r="D14" s="2">
-        <v>27445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="1">
+        <v>2848</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
-        <v>9615</v>
-      </c>
-      <c r="C15" s="3">
-        <v>24308</v>
-      </c>
-      <c r="D15" s="3">
-        <v>33923</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2">
+        <v>5646</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>2848</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10438</v>
-      </c>
-      <c r="D16" s="2">
-        <v>13286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B18" s="1">
+        <v>1935</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
-        <v>5646</v>
-      </c>
-      <c r="C17" s="3">
-        <v>20929</v>
-      </c>
-      <c r="D17" s="3">
-        <v>26575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="2">
+        <v>13595</v>
+      </c>
+      <c r="C19" s="2">
+        <v>58273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>1935</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7985</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9920</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B20" s="1">
+        <v>23618</v>
+      </c>
+      <c r="C20" s="1">
+        <v>93569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
-        <v>13595</v>
-      </c>
-      <c r="C19" s="3">
-        <v>58273</v>
-      </c>
-      <c r="D19" s="3">
-        <v>71868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2">
+        <v>3361</v>
+      </c>
+      <c r="C21" s="2">
+        <v>11362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>23618</v>
-      </c>
-      <c r="C20" s="2">
-        <v>93569</v>
-      </c>
-      <c r="D20" s="2">
-        <v>117187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="1">
+        <v>2123</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
-        <v>3361</v>
-      </c>
-      <c r="C21" s="3">
-        <v>11362</v>
-      </c>
-      <c r="D21" s="3">
-        <v>14723</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="2">
+        <v>544</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
-        <v>2123</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5258</v>
-      </c>
-      <c r="D22" s="2">
-        <v>7381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="1">
+        <v>14061</v>
+      </c>
+      <c r="C24" s="1">
+        <v>54101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
-        <v>544</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1119</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C25" s="2">
+        <v>37472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
-        <v>14061</v>
-      </c>
-      <c r="C24" s="2">
-        <v>54101</v>
-      </c>
-      <c r="D24" s="2">
-        <v>68162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="1">
+        <v>1888</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3">
-        <v>10400</v>
-      </c>
-      <c r="C25" s="3">
-        <v>37472</v>
-      </c>
-      <c r="D25" s="3">
-        <v>47872</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="2">
+        <v>53124</v>
+      </c>
+      <c r="C27" s="2">
+        <v>281812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
-        <v>1888</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5614</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3">
-        <v>53124</v>
-      </c>
-      <c r="C27" s="3">
-        <v>281812</v>
-      </c>
-      <c r="D27" s="3">
-        <v>334936</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1799</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>5200</v>
       </c>
-      <c r="D28" s="2">
-        <v>6999</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://relatorio.confea.org.br/Profissional/ProfissionaisPorGenero" xr:uid="{E24EFAF2-EA5F-4AD9-810A-4594934CA5D4}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://relatorio.confea.org.br/Profissional/ProfissionaisPorGenero" xr:uid="{32EDA1E0-E06E-4283-8B01-7933B993BBBF}"/>
-    <hyperlink ref="C1" r:id="rId3" display="https://relatorio.confea.org.br/Profissional/ProfissionaisPorGenero" xr:uid="{5E4525D7-ED59-45B0-BDCB-1368DBD2ADC8}"/>
-    <hyperlink ref="D1" r:id="rId4" display="https://relatorio.confea.org.br/Profissional/ProfissionaisPorGenero" xr:uid="{F5D3EE2E-D83E-4CDD-93E3-A483AB22F5F3}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>